--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\ORA Errors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0260A16F-AAD7-4E2D-B374-F5337B66764C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236AFF3-48F6-45A1-B7A6-F7B6DA3255BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,6 +401,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\ORA Errors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236AFF3-48F6-45A1-B7A6-F7B6DA3255BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -371,42 +371,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45967</v>
+        <v>45957</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45964</v>
+        <v>45967</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>45968</v>
       </c>
-      <c r="B6">
-        <v>12</v>
+      <c r="B7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B11">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\ORA Errors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E4433A9-D3E1-47B7-898B-FF564FDD2254}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,6 +449,14 @@
         <v>108</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E4433A9-D3E1-47B7-898B-FF564FDD2254}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E21FD512-E6F9-46A7-9480-63C75364DA16}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,6 +457,14 @@
         <v>77</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B13">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\ORA Errors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E21FD512-E6F9-46A7-9480-63C75364DA16}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,22 +449,6 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>45971</v>
-      </c>
-      <c r="B12">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>45973</v>
-      </c>
-      <c r="B13">
-        <v>110</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monitoring Dashboard\Monitoring Data Files\ORA Errors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73184C69-BA26-4CF7-83EA-64EC8DCB591E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,6 +449,30 @@
         <v>108</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>45974</v>
+      </c>
+      <c r="B14">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73184C69-BA26-4CF7-83EA-64EC8DCB591E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204B64C0-B1D3-47B2-8F2F-031E9C68D0A2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,19 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45957</v>
       </c>
@@ -377,7 +377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45959</v>
       </c>
@@ -385,7 +385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45966</v>
       </c>
@@ -393,7 +393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45967</v>
       </c>
@@ -401,7 +401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45964</v>
       </c>
@@ -409,7 +409,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45968</v>
       </c>
@@ -417,7 +417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45958</v>
       </c>
@@ -425,7 +425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45960</v>
       </c>
@@ -433,7 +433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45965</v>
       </c>
@@ -441,7 +441,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45961</v>
       </c>
@@ -449,7 +449,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45971</v>
       </c>
@@ -457,7 +457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45973</v>
       </c>
@@ -465,12 +465,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45974</v>
       </c>
       <c r="B14">
         <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45975</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204B64C0-B1D3-47B2-8F2F-031E9C68D0A2}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D1E792-3378-40EE-B196-C5DE9D535A43}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +481,14 @@
         <v>64</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D1E792-3378-40EE-B196-C5DE9D535A43}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2761FD4E-66A7-4A0A-B27A-4D5974B4A29C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,19 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45957</v>
       </c>
@@ -377,7 +377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45959</v>
       </c>
@@ -385,7 +385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45966</v>
       </c>
@@ -393,7 +393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45967</v>
       </c>
@@ -401,7 +401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45964</v>
       </c>
@@ -409,7 +409,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45968</v>
       </c>
@@ -417,7 +417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45958</v>
       </c>
@@ -425,7 +425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45960</v>
       </c>
@@ -433,7 +433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45965</v>
       </c>
@@ -441,7 +441,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45961</v>
       </c>
@@ -449,7 +449,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45971</v>
       </c>
@@ -457,7 +457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45973</v>
       </c>
@@ -465,7 +465,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45974</v>
       </c>
@@ -473,7 +473,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45975</v>
       </c>
@@ -481,12 +481,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45978</v>
       </c>
       <c r="B16">
         <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B17">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2761FD4E-66A7-4A0A-B27A-4D5974B4A29C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64844014-397C-42D8-8FF1-3E88247DBD09}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,19 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45957</v>
       </c>
@@ -377,7 +377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45959</v>
       </c>
@@ -385,7 +385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45966</v>
       </c>
@@ -393,7 +393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45967</v>
       </c>
@@ -401,7 +401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45964</v>
       </c>
@@ -409,7 +409,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45968</v>
       </c>
@@ -417,7 +417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45958</v>
       </c>
@@ -425,7 +425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45960</v>
       </c>
@@ -433,7 +433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45965</v>
       </c>
@@ -441,7 +441,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45961</v>
       </c>
@@ -449,7 +449,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45971</v>
       </c>
@@ -457,7 +457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45973</v>
       </c>
@@ -465,7 +465,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45974</v>
       </c>
@@ -473,7 +473,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45975</v>
       </c>
@@ -481,7 +481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45978</v>
       </c>
@@ -489,12 +489,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45979</v>
       </c>
       <c r="B17">
         <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45980</v>
+      </c>
+      <c r="B18">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64844014-397C-42D8-8FF1-3E88247DBD09}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03CDB2C7-AD27-4171-893C-FA4CE14C3535}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,19 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45957</v>
       </c>
@@ -377,7 +377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45959</v>
       </c>
@@ -385,7 +385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45966</v>
       </c>
@@ -393,7 +393,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45967</v>
       </c>
@@ -401,7 +401,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45964</v>
       </c>
@@ -409,7 +409,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45968</v>
       </c>
@@ -417,7 +417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45958</v>
       </c>
@@ -425,7 +425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45960</v>
       </c>
@@ -433,7 +433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45965</v>
       </c>
@@ -441,7 +441,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45961</v>
       </c>
@@ -449,7 +449,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45971</v>
       </c>
@@ -457,7 +457,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45973</v>
       </c>
@@ -465,7 +465,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45974</v>
       </c>
@@ -473,7 +473,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45975</v>
       </c>
@@ -481,7 +481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45978</v>
       </c>
@@ -489,7 +489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45979</v>
       </c>
@@ -497,12 +497,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45980</v>
       </c>
       <c r="B18">
         <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>45981</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03CDB2C7-AD27-4171-893C-FA4CE14C3535}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15596B51-49E4-4B6A-9559-5CCF6DF85E20}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,6 +513,38 @@
         <v>92</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45982</v>
+      </c>
+      <c r="B20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B23">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15596B51-49E4-4B6A-9559-5CCF6DF85E20}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00E48868-3255-439D-A7EE-EA9864501DA6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,6 +545,14 @@
         <v>103</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B24">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00E48868-3255-439D-A7EE-EA9864501DA6}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22386661-E6EC-4131-86CE-AF04EE1986B2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+      <selection activeCell="A25" sqref="A25:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,6 +553,22 @@
         <v>76</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>45993</v>
+      </c>
+      <c r="B25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B26">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22386661-E6EC-4131-86CE-AF04EE1986B2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91CC40A5-2456-4F55-9F18-CD87DCAE9703}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,6 +569,14 @@
         <v>85</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B27">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91CC40A5-2456-4F55-9F18-CD87DCAE9703}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BF31624-943E-479F-B2D8-4577F0FCE4F3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A28" sqref="A28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,6 +581,22 @@
         <v>69</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B28">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B29">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BF31624-943E-479F-B2D8-4577F0FCE4F3}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AABA403-EE31-4839-9C48-9000752A20CB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B29"/>
+      <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,6 +593,14 @@
         <v>84</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B30">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AABA403-EE31-4839-9C48-9000752A20CB}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EA15782-2359-490F-9244-333BBE8AECBB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B30"/>
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,6 +601,14 @@
         <v>62</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B31">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EA15782-2359-490F-9244-333BBE8AECBB}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10E460AD-A0D8-4CCC-9B3F-DF895DD00719}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,6 +609,14 @@
         <v>64</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B32">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10E460AD-A0D8-4CCC-9B3F-DF895DD00719}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AFE1F1-670B-402A-9E43-4B26155AB872}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+      <selection activeCell="A33" sqref="A33:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,6 +617,14 @@
         <v>96</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B33">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AFE1F1-670B-402A-9E43-4B26155AB872}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E94B8696-18F2-4F2C-8C4D-92D5B0FA3A21}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,6 +625,14 @@
         <v>64</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>46006</v>
+      </c>
+      <c r="B34">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E94B8696-18F2-4F2C-8C4D-92D5B0FA3A21}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B830F2AE-1784-4594-9422-A05FD9D1B7A0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:B34"/>
+      <selection activeCell="A35" sqref="A35:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,6 +633,14 @@
         <v>93</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B830F2AE-1784-4594-9422-A05FD9D1B7A0}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA26217E-3014-44D3-93C3-25F0849B7796}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B35"/>
+      <selection activeCell="A36" sqref="A36:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,6 +641,14 @@
         <v>50</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B36">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA26217E-3014-44D3-93C3-25F0849B7796}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3261CEF2-8E91-41AC-B518-EBDBA8D44D5E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B36"/>
+      <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,6 +649,14 @@
         <v>61</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B37">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3261CEF2-8E91-41AC-B518-EBDBA8D44D5E}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC9458BC-2391-4C34-B500-0FD7880CED1D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,6 +657,30 @@
         <v>67</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>46013</v>
+      </c>
+      <c r="B38">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B39">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>46014</v>
+      </c>
+      <c r="B40">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC9458BC-2391-4C34-B500-0FD7880CED1D}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE73976E-FBAF-427A-B921-3C78CDF35EDE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,6 +681,46 @@
         <v>64</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B45">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE73976E-FBAF-427A-B921-3C78CDF35EDE}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AE4126E-63E6-4293-ABE5-B81F7350AA53}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,6 +721,22 @@
         <v>51</v>
       </c>
     </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AE4126E-63E6-4293-ABE5-B81F7350AA53}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A1F430-8901-412E-84A3-8182C2DE24C0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="A48" sqref="A48:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,6 +737,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B48">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A1F430-8901-412E-84A3-8182C2DE24C0}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2810D6C9-3495-43C8-B1C1-42A8CA0EEAC0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -349,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:B48"/>
+      <selection activeCell="A50" sqref="A50:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,6 +756,38 @@
         <v>71</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B50">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B52">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2810D6C9-3495-43C8-B1C1-42A8CA0EEAC0}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586BB861-3511-4BBE-8C6D-9580160382EC}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,6 +788,22 @@
         <v>102</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B53">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B54">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{586BB861-3511-4BBE-8C6D-9580160382EC}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38609E68-67A9-4A44-86E2-356468B51CC1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B54"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,6 +804,30 @@
         <v>68</v>
       </c>
     </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B55">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38609E68-67A9-4A44-86E2-356468B51CC1}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11112A88-41A5-47AE-9185-F89DB22D6BB2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,6 +828,22 @@
         <v>56</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B58">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>46048</v>
+      </c>
+      <c r="B59">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Monitoring Data Files/ORA Errors/Online.xlsx
+++ b/Monitoring Data Files/ORA Errors/Online.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofmichigan-my.sharepoint.com/personal/kuradah_michigan_gov/Documents/Desktop/Dashboard files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11112A88-41A5-47AE-9185-F89DB22D6BB2}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{7591393E-8DAE-482C-8217-1724312539B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9392585-1B89-4CB4-88E1-F4F0D5F6EF4C}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:B59"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,10 +838,26 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
+        <v>46049</v>
+      </c>
+      <c r="B59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>46048</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>46050</v>
+      </c>
+      <c r="B61">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
